--- a/library/src/main/resources/static/excel/도서추가양식.xlsx
+++ b/library/src/main/resources/static/excel/도서추가양식.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\82102\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27B0BD68-2986-4276-9FB8-E5918847C9B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{868364F9-4F7F-4491-9EE4-91C1DF9C84E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{B6E35743-3F38-4A51-A504-3EFCADA538ED}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B6E35743-3F38-4A51-A504-3EFCADA538ED}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>책 이름</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -50,14 +51,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>출판사</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>출판연도</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>주의사항 : 해당 행(2행)과 1행을 삭제하지 마십시오. DB에 입력되는 값은 A~E열에 입력된 유효한 값만 저장합니다. 또한 모든 열의 값이 입력되어야 저장됩니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -78,7 +71,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>해당 셀은 청구기호 참고 자료입니다. A~E열로 이동하지 마십시오.</t>
+    <t>해당 셀은 청구기호 참고 자료입니다. Sheet1으로 이동하지 마십시오.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>작성 예시 -  "인문학을 부탁해 (…)" , 박영규 지음, 종합자료실 - 001.3-박64인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>출판사(띄어쓰기 없이)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>출판연도(4자리 20xx)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -123,7 +128,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -146,146 +151,27 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -621,98 +507,155 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA23DE6F-3C7E-48C6-A0AD-7E324F9814BA}">
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="17.5" customWidth="1"/>
     <col min="2" max="3" width="17.69921875" customWidth="1"/>
+    <col min="4" max="4" width="24.796875" customWidth="1"/>
+    <col min="5" max="5" width="20.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:E2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B0D7E1F-7565-4E92-90DA-233633977856}">
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="17" t="s">
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="H3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="3"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="H4" s="4"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="6"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="H5" s="7" t="s">
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="9"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="H6" s="10" t="s">
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="12"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="H7" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="12"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="H8" s="13" t="s">
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="15"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="H3:K4"/>
-    <mergeCell ref="H5:K5"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A1:H2"/>
+    <mergeCell ref="A7:H7"/>
+    <mergeCell ref="A6:H6"/>
+    <mergeCell ref="A5:H5"/>
+    <mergeCell ref="A4:H4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/library/src/main/resources/static/excel/도서추가양식.xlsx
+++ b/library/src/main/resources/static/excel/도서추가양식.xlsx
@@ -2,13 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr codeName="현재_통합_문서" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\82102\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\82102\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{868364F9-4F7F-4491-9EE4-91C1DF9C84E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79EE242D-F374-4362-AC76-33E550DB7AF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B6E35743-3F38-4A51-A504-3EFCADA538ED}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>책 이름</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -59,31 +59,47 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>외 - 외국어 자료실</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>아/유 - 아동/청소년 자료실</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>그외 - 종합자료실</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>해당 셀은 청구기호 참고 자료입니다. Sheet1으로 이동하지 마십시오.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>작성 예시 -  "인문학을 부탁해 (…)" , 박영규 지음, 종합자료실 - 001.3-박64인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>출판사(띄어쓰기 없이)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>출판연도(4자리 20xx)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>외,C - 외국어 자료실</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그 외 - 종합자료실</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>작성 예시 -  "인문학을 부탁해 (…)" , 박영규 지음, 종합자료실 - 001.3-박64ㅇ=1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>청구기호 작성 방식 - [서가정보][도서분류번호][-][저자번호][도서명][도서번호][권차기호][복본기호]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[분류기호: 001.3][-][저자번호: 박64][도서명: ㅇ][복본기호: =1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>작성 예시 -  "해리포터와 마법사의 돌. 제1권 1권" , 조앤 K. 롤링 지음;김혜원 옮김, 아동/청소년 자료실 - 아843-롤29ㅎv.1.1=1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[서가정보: 아][분류기호: 843][-][저자번호: 롤29][도서명: ㅎ][권차기호: v1.1][복본기호: =1]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -157,7 +173,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -172,6 +188,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -507,15 +526,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA23DE6F-3C7E-48C6-A0AD-7E324F9814BA}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="17.5" customWidth="1"/>
+    <col min="1" max="1" width="42.3984375" customWidth="1"/>
     <col min="2" max="3" width="17.69921875" customWidth="1"/>
     <col min="4" max="4" width="24.796875" customWidth="1"/>
     <col min="5" max="5" width="20.3984375" customWidth="1"/>
@@ -532,10 +552,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
@@ -558,17 +578,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B0D7E1F-7565-4E92-90DA-233633977856}">
-  <dimension ref="A1:H7"/>
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="8" max="8" width="45.296875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -590,7 +614,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -602,7 +626,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -614,7 +638,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5" s="3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -626,7 +650,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A6" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -638,7 +662,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A7" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -648,14 +672,66 @@
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
     </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A11" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+    </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="10">
+    <mergeCell ref="A10:H10"/>
+    <mergeCell ref="A11:H11"/>
+    <mergeCell ref="A9:H9"/>
     <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A4:H4"/>
     <mergeCell ref="A1:H2"/>
+    <mergeCell ref="A8:H8"/>
     <mergeCell ref="A7:H7"/>
     <mergeCell ref="A6:H6"/>
     <mergeCell ref="A5:H5"/>
-    <mergeCell ref="A4:H4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
